--- a/hp/4model-GAN/RS(6,3)数据-PRM-GAN_all_box.xlsx
+++ b/hp/4model-GAN/RS(6,3)数据-PRM-GAN_all_box.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214A1D9-9650-4A88-86C8-EC828C3C355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7D41B-D633-4C62-A765-A49CB2FCC6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
@@ -660,27 +660,27 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H3" ca="1" si="0">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.48</v>
+        <v>0.76</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.9</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.64</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1399999999999999</v>
+        <v>-0.76</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -689,27 +689,27 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:H4" ca="1" si="1">C2-C3</f>
-        <v>64.84</v>
+        <v>63.6</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>70.320000000000007</v>
+        <v>69.56</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72.78</v>
+        <v>71.28</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>73.459999999999994</v>
+        <v>74.36</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73.539999999999992</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>74.34</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -767,27 +767,27 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:H7" ca="1" si="2">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.88</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3600000000000001</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.8</v>
+        <v>-0.52</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.7</v>
+        <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -796,27 +796,27 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:H8" ca="1" si="3">C6-C7</f>
-        <v>71.64</v>
+        <v>70.12</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>81.240000000000009</v>
+        <v>81.740000000000009</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>82.8</v>
+        <v>83.14</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>83.06</v>
+        <v>82.26</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>85.2</v>
+        <v>84.92</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>86.76</v>
+        <v>85.48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -874,27 +874,27 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:H11" ca="1" si="4">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>0.76</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.92</v>
+        <v>-6.0000000000000053E-2</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58000000000000007</v>
+        <v>-0.67999999999999994</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62000000000000011</v>
+        <v>-0.98</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.64</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7</v>
+        <v>-0.67999999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -903,27 +903,27 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" ref="C12:H12" ca="1" si="5">C10-C11</f>
-        <v>75.179999999999993</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>77.52</v>
+        <v>76.66</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>78.900000000000006</v>
+        <v>80.160000000000011</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81.02</v>
+        <v>82.62</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>83.5</v>
+        <v>82.36</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>81.739999999999995</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,27 +981,27 @@
       </c>
       <c r="C15">
         <f t="shared" ref="C15:H15" ca="1" si="6">(RANDBETWEEN(1,100)/100)*2-1</f>
-        <v>-0.78</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28000000000000003</v>
+        <v>-0.38</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10000000000000009</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17999999999999994</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.84000000000000008</v>
+        <v>-0.84</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1010,27 +1010,27 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:H16" ca="1" si="7">C14-C15</f>
-        <v>71.28</v>
+        <v>69.94</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>75.22</v>
+        <v>75.88</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>76.600000000000009</v>
+        <v>76.38000000000001</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>80.36</v>
+        <v>79.960000000000008</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>81.06</v>
+        <v>82.740000000000009</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79.56</v>
+        <v>80.06</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1079,45 +1079,45 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="C30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>4.8499999999999996</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="D30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>4.2</v>
+        <v>0.65</v>
       </c>
       <c r="E30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F30">
         <f ca="1">(RANDBETWEEN(1,100)/100)*5</f>
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31">
         <f ca="1">B29+B30</f>
-        <v>67.38333333333334</v>
+        <v>66.333333333333329</v>
       </c>
       <c r="C31">
         <f ca="1">C29+C30</f>
-        <v>68.603333333333325</v>
+        <v>64.603333333333325</v>
       </c>
       <c r="D31">
         <f ca="1">D29+D30</f>
-        <v>68.853333333333339</v>
+        <v>65.303333333333342</v>
       </c>
       <c r="E31">
         <f ca="1">E29+E30</f>
-        <v>65.713333333333324</v>
+        <v>67.713333333333324</v>
       </c>
       <c r="F31">
         <f ca="1">F29+F30</f>
-        <v>66.723333333333329</v>
+        <v>68.223333333333329</v>
       </c>
     </row>
   </sheetData>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2884,7 +2884,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="4">
-        <v>83.974666666666664</v>
+        <v>83.174666666666695</v>
       </c>
       <c r="D5" s="4">
         <v>81.377333333333326</v>
@@ -2900,18 +2900,18 @@
       </c>
       <c r="I5">
         <f>AVERAGE(C5:G5)</f>
-        <v>82.238266666666661</v>
+        <v>82.078266666666678</v>
       </c>
       <c r="J5">
         <v>82.26</v>
       </c>
       <c r="K5">
         <f>I5-J5</f>
-        <v>-2.1733333333344262E-2</v>
+        <v>-0.18173333333332664</v>
       </c>
       <c r="N5">
         <f>(MAX(C5:G5)-MEDIAN(C5:G5))/(QUARTILE(C5:G5,3)-MEDIAN(C5:G5))-1</f>
-        <v>1.1366646598434476</v>
+        <v>0.4142083082480581</v>
       </c>
       <c r="O5">
         <f>(MIN(C5:G5)-MEDIAN(C5:G5))/(QUARTILE(C5:G5,1)-MEDIAN(C5:G5))-1</f>
@@ -2926,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="4">
-        <v>84.749333333333325</v>
+        <v>83.749333333333297</v>
       </c>
       <c r="D6" s="4">
         <v>82.438666666666649</v>
@@ -2942,18 +2942,18 @@
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I34" si="0">AVERAGE(C6:G6)</f>
-        <v>83.502666666666656</v>
+        <v>83.302666666666639</v>
       </c>
       <c r="J6">
         <v>83.449999999999989</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K34" si="1">I6-J6</f>
-        <v>5.2666666666667084E-2</v>
+        <v>-0.14733333333334997</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:N34" si="2">(MAX(C6:G6)-MEDIAN(C6:G6))/(QUARTILE(C6:G6,3)-MEDIAN(C6:G6))-1</f>
-        <v>1.382142857142818</v>
+        <v>0.67664670658693105</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O34" si="3">(MIN(C6:G6)-MEDIAN(C6:G6))/(QUARTILE(C6:G6,1)-MEDIAN(C6:G6))-1</f>
@@ -3004,7 +3004,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="4">
-        <v>86.299333333333323</v>
+        <v>85.299333333333294</v>
       </c>
       <c r="D8" s="4">
         <v>84.847333333333324</v>
@@ -3020,18 +3020,18 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>84.867466666666658</v>
+        <v>84.667466666666655</v>
       </c>
       <c r="J8">
         <v>84.66</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>0.20746666666666158</v>
+        <v>7.4666666666587389E-3</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>1.6272617611580165</v>
+        <v>0.22271386430686735</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
@@ -3082,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>84.034000000000006</v>
+        <v>82.634</v>
       </c>
       <c r="D10" s="4">
         <v>81.385999999999996</v>
@@ -3098,18 +3098,18 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>82.274000000000015</v>
+        <v>81.994</v>
       </c>
       <c r="J10">
         <v>82.2</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>7.4000000000012278E-2</v>
+        <v>-0.20600000000000307</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>1.9454022988505795</v>
+        <v>7.0769230769241576E-2</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
@@ -3160,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>84.626666666666665</v>
+        <v>83.426666666666705</v>
       </c>
       <c r="D12" s="4">
         <v>81.738</v>
@@ -3176,18 +3176,18 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>83.038666666666671</v>
+        <v>82.798666666666676</v>
       </c>
       <c r="J12">
         <v>82.92</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>0.11866666666666958</v>
+        <v>-0.1213333333333253</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>7.2115384615385167</v>
+        <v>0.28846153846177014</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
@@ -4068,6 +4068,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4075,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
